--- a/Server/第1&2轮成绩.xlsx
+++ b/Server/第1&2轮成绩.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="回顾表" r:id="rId3" sheetId="1"/>
+    <sheet name="个人得分" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="30">
   <si>
     <t>学校名</t>
   </si>
@@ -39,6 +40,69 @@
   </si>
   <si>
     <t>啦啦啦</t>
+  </si>
+  <si>
+    <t>队员名</t>
+  </si>
+  <si>
+    <t>队员性别</t>
+  </si>
+  <si>
+    <t>正方得分</t>
+  </si>
+  <si>
+    <t>反方得分</t>
+  </si>
+  <si>
+    <t>评方得分</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>30.0,</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>阿四</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>,30.0</t>
+  </si>
+  <si>
+    <t>-30.0</t>
+  </si>
+  <si>
+    <t>-&gt;30.0</t>
+  </si>
+  <si>
+    <t>正方得分情况</t>
+  </si>
+  <si>
+    <t>正方平均分</t>
+  </si>
+  <si>
+    <t>反方得分情况</t>
+  </si>
+  <si>
+    <t>反方平均分</t>
+  </si>
+  <si>
+    <t>评方得分情况</t>
+  </si>
+  <si>
+    <t>评方平均分</t>
+  </si>
+  <si>
+    <t>30.0</t>
   </si>
 </sst>
 </file>
@@ -134,4 +198,101 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Server/第1&2轮成绩.xlsx
+++ b/Server/第1&2轮成绩.xlsx
@@ -6,14 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="回顾表" r:id="rId3" sheetId="1"/>
     <sheet name="个人得分" r:id="rId4" sheetId="2"/>
+    <sheet name="队伍总得分" r:id="rId5" sheetId="9"/>
+    <sheet name="回顾表" r:id="rId6" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="33">
   <si>
     <t>学校名</t>
   </si>
@@ -103,6 +104,15 @@
   </si>
   <si>
     <t>30.0</t>
+  </si>
+  <si>
+    <t>总得分</t>
+  </si>
+  <si>
+    <t>7我来发明</t>
+  </si>
+  <si>
+    <t>9牛顿摆</t>
   </si>
 </sst>
 </file>
@@ -145,53 +155,44 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -295,4 +296,50 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>